--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_8_33.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_8_33.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2900123.88163644</v>
+        <v>2895818.165260369</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283185</v>
+        <v>416855.1052283187</v>
       </c>
     </row>
     <row r="9">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -676,10 +676,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,16 +706,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>71.64776300056134</v>
       </c>
       <c r="U2" t="n">
-        <v>105.3437694480957</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -819,25 +819,25 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>127.8224738943863</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -879,10 +879,10 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>197.5294886147938</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -898,25 +898,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>134.8122206876834</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,28 +943,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>11.91146049106538</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1098,31 +1098,31 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>54.47555601903363</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>196.7218456862865</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1135,19 +1135,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>104.316848397242</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>412.9169039459368</v>
+        <v>12.9169039459368</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1183,16 +1183,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>143.7400508413098</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U8" t="n">
-        <v>251.1547862223006</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1290,25 +1290,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>24.05163856504923</v>
+        <v>10.0858176618203</v>
       </c>
       <c r="I10" t="n">
         <v>123.266557879417</v>
@@ -1347,19 +1347,19 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.260654658097</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1387,7 +1387,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695534</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1466,7 +1466,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1499,7 +1499,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>117.0286782364135</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T12" t="n">
         <v>188.3046392154443</v>
@@ -1536,13 +1536,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>99.97427419833771</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1575,13 +1575,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012171</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>151.8555862333575</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1621,10 +1621,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695534</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1703,7 +1703,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1736,7 +1736,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>117.0286782364135</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T15" t="n">
         <v>188.3046392154443</v>
@@ -1770,22 +1770,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>19.91555826189018</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1821,7 +1821,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>214.0647808588581</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1843,16 +1843,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -1894,16 +1894,16 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881266</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -1912,7 +1912,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -1940,7 +1940,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H18" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1973,7 +1973,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>117.0286782364135</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T18" t="n">
         <v>188.3046392154443</v>
@@ -2004,13 +2004,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>101.9154861872828</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -2022,7 +2022,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856556</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012171</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2058,19 +2058,19 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>219.4517041866519</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2083,13 +2083,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -2098,7 +2098,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695534</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881271</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2149,7 +2149,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -2177,7 +2177,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H21" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2210,7 +2210,7 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>117.0286782364135</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T21" t="n">
         <v>188.3046392154443</v>
@@ -2241,7 +2241,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2250,7 +2250,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>110.0177171766847</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012171</v>
+        <v>9.146142788179931</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2481,13 +2481,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
@@ -2496,7 +2496,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>4.019807611472697</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2532,7 +2532,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>139.3687739767485</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2572,7 +2572,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2718,22 +2718,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>105.1820732698684</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,13 +2760,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2806,7 +2806,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2958,19 +2958,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>40.62253010341791</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3006,10 +3006,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3186,19 +3186,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>65.67353929277292</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
@@ -3207,7 +3207,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,16 +3234,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673018</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3316,22 +3316,22 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576146</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881287</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -3426,25 +3426,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="D37" t="n">
-        <v>4.019807611472585</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3520,7 +3520,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444115</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3660,25 +3660,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>54.32649042089713</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3903,7 +3903,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>108.9065924712593</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3918,7 +3918,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
@@ -4134,19 +4134,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>63.1628130171261</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>9.146142788179368</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
@@ -4155,7 +4155,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1595.875667274027</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="C2" t="n">
-        <v>1595.875667274027</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="D2" t="n">
-        <v>1595.875667274027</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="E2" t="n">
-        <v>1210.087414675782</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F2" t="n">
-        <v>799.1015098861748</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G2" t="n">
-        <v>381.1377017843616</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
@@ -4333,16 +4333,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4357,25 +4357,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2423.485734520778</v>
+        <v>2393.571436084541</v>
       </c>
       <c r="U2" t="n">
-        <v>2317.077886593409</v>
+        <v>2139.809650722632</v>
       </c>
       <c r="V2" t="n">
-        <v>1986.014999249838</v>
+        <v>1808.746763379062</v>
       </c>
       <c r="W2" t="n">
-        <v>1986.014999249838</v>
+        <v>1808.746763379062</v>
       </c>
       <c r="X2" t="n">
-        <v>1986.014999249838</v>
+        <v>1808.746763379062</v>
       </c>
       <c r="Y2" t="n">
-        <v>1595.875667274027</v>
+        <v>1808.746763379062</v>
       </c>
     </row>
     <row r="3">
@@ -4403,31 +4403,31 @@
         <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2321.012881554389</v>
+        <v>528.604248231895</v>
       </c>
       <c r="C4" t="n">
-        <v>2152.076698626483</v>
+        <v>528.604248231895</v>
       </c>
       <c r="D4" t="n">
-        <v>2152.076698626483</v>
+        <v>528.604248231895</v>
       </c>
       <c r="E4" t="n">
-        <v>2152.076698626483</v>
+        <v>380.6911546495019</v>
       </c>
       <c r="F4" t="n">
-        <v>2152.076698626483</v>
+        <v>380.6911546495019</v>
       </c>
       <c r="G4" t="n">
-        <v>2152.076698626483</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="H4" t="n">
-        <v>2152.076698626483</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K4" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>2206.839139259579</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>2351.737007977609</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>2498.624145662038</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>2618.281896171278</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>2549.002432452407</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>2549.002432452407</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>2549.002432452407</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>2549.002432452407</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V4" t="n">
-        <v>2549.002432452407</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W4" t="n">
-        <v>2549.002432452407</v>
+        <v>528.604248231895</v>
       </c>
       <c r="X4" t="n">
-        <v>2321.012881554389</v>
+        <v>528.604248231895</v>
       </c>
       <c r="Y4" t="n">
-        <v>2321.012881554389</v>
+        <v>528.604248231895</v>
       </c>
     </row>
     <row r="5">
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1704.527073573122</v>
+        <v>1745.334734821698</v>
       </c>
       <c r="C5" t="n">
-        <v>1568.353113282533</v>
+        <v>1376.372217881286</v>
       </c>
       <c r="D5" t="n">
-        <v>1210.087414675782</v>
+        <v>1018.106519274536</v>
       </c>
       <c r="E5" t="n">
-        <v>1210.087414675782</v>
+        <v>632.3182666762915</v>
       </c>
       <c r="F5" t="n">
-        <v>799.1015098861748</v>
+        <v>221.3323618866839</v>
       </c>
       <c r="G5" t="n">
-        <v>381.1377017843616</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
@@ -4570,7 +4570,7 @@
         <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
         <v>881.2824271224076</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2685.117312744419</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2508.939825058589</v>
       </c>
       <c r="T5" t="n">
-        <v>2642.120401548716</v>
+        <v>2508.939825058589</v>
       </c>
       <c r="U5" t="n">
-        <v>2388.358616186807</v>
+        <v>2508.939825058589</v>
       </c>
       <c r="V5" t="n">
-        <v>2057.295728843236</v>
+        <v>2508.939825058589</v>
       </c>
       <c r="W5" t="n">
-        <v>1704.527073573122</v>
+        <v>2508.939825058589</v>
       </c>
       <c r="X5" t="n">
-        <v>1704.527073573122</v>
+        <v>2135.474066797509</v>
       </c>
       <c r="Y5" t="n">
-        <v>1704.527073573122</v>
+        <v>1745.334734821698</v>
       </c>
     </row>
     <row r="6">
@@ -4731,43 +4731,43 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>336.2769833124028</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T7" t="n">
-        <v>108.9687959810045</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U7" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V7" t="n">
-        <v>53.94298182036445</v>
+        <v>473.4444960005476</v>
       </c>
       <c r="W7" t="n">
-        <v>53.94298182036445</v>
+        <v>473.4444960005476</v>
       </c>
       <c r="X7" t="n">
-        <v>53.94298182036445</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="Y7" t="n">
         <v>53.94298182036445</v>
@@ -4780,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>962.1895701187893</v>
+        <v>1186.952328438143</v>
       </c>
       <c r="C8" t="n">
-        <v>962.1895701187893</v>
+        <v>817.9898114977311</v>
       </c>
       <c r="D8" t="n">
-        <v>962.1895701187893</v>
+        <v>459.7241128909807</v>
       </c>
       <c r="E8" t="n">
-        <v>576.401317520545</v>
+        <v>73.93586029273641</v>
       </c>
       <c r="F8" t="n">
-        <v>471.030763583937</v>
+        <v>66.99035954353293</v>
       </c>
       <c r="G8" t="n">
         <v>53.94298182036445</v>
@@ -4804,25 +4804,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>242.5828808341008</v>
+        <v>75.17723181374775</v>
       </c>
       <c r="K8" t="n">
-        <v>646.0499938541462</v>
+        <v>192.4307036906658</v>
       </c>
       <c r="L8" t="n">
-        <v>1094.46325341956</v>
+        <v>745.243961936865</v>
       </c>
       <c r="M8" t="n">
-        <v>1281.162666244967</v>
+        <v>1376.961772920177</v>
       </c>
       <c r="N8" t="n">
-        <v>1475.49687913695</v>
+        <v>2004.269440980023</v>
       </c>
       <c r="O8" t="n">
-        <v>2022.658083904027</v>
+        <v>2551.430645747101</v>
       </c>
       <c r="P8" t="n">
-        <v>2451.973130243322</v>
+        <v>2662.164970996627</v>
       </c>
       <c r="Q8" t="n">
         <v>2697.149091018222</v>
@@ -4831,25 +4831,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018222</v>
+        <v>2551.957120471445</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018222</v>
+        <v>2337.157258739156</v>
       </c>
       <c r="U8" t="n">
-        <v>2443.457387763373</v>
+        <v>2337.157258739156</v>
       </c>
       <c r="V8" t="n">
-        <v>2112.394500419803</v>
+        <v>2337.157258739156</v>
       </c>
       <c r="W8" t="n">
-        <v>2112.394500419803</v>
+        <v>2337.157258739156</v>
       </c>
       <c r="X8" t="n">
-        <v>1738.928742158723</v>
+        <v>1963.691500478076</v>
       </c>
       <c r="Y8" t="n">
-        <v>1348.789410182911</v>
+        <v>1573.552168502265</v>
       </c>
     </row>
     <row r="9">
@@ -4886,22 +4886,22 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>383.3713861261743</v>
+        <v>121.5508014837215</v>
       </c>
       <c r="L9" t="n">
-        <v>887.7329259922928</v>
+        <v>625.9123413498401</v>
       </c>
       <c r="M9" t="n">
-        <v>1067.230262346898</v>
+        <v>1266.457690816945</v>
       </c>
       <c r="N9" t="n">
-        <v>1432.170805967367</v>
+        <v>1640.147320825857</v>
       </c>
       <c r="O9" t="n">
-        <v>1981.606814720089</v>
+        <v>2189.58332957858</v>
       </c>
       <c r="P9" t="n">
-        <v>2405.574583200926</v>
+        <v>2613.551098059417</v>
       </c>
       <c r="Q9" t="n">
         <v>2636.288039261394</v>
@@ -4938,22 +4938,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>220.6238286145414</v>
+        <v>651.4366193059393</v>
       </c>
       <c r="C10" t="n">
-        <v>220.6238286145414</v>
+        <v>651.4366193059393</v>
       </c>
       <c r="D10" t="n">
-        <v>220.6238286145414</v>
+        <v>501.3199798936035</v>
       </c>
       <c r="E10" t="n">
-        <v>220.6238286145414</v>
+        <v>353.4068863112104</v>
       </c>
       <c r="F10" t="n">
-        <v>220.6238286145414</v>
+        <v>206.5169388133001</v>
       </c>
       <c r="G10" t="n">
-        <v>220.6238286145414</v>
+        <v>206.5169388133001</v>
       </c>
       <c r="H10" t="n">
         <v>196.3292442054008</v>
@@ -4995,19 +4995,19 @@
         <v>1053.877663279709</v>
       </c>
       <c r="U10" t="n">
-        <v>764.7254868573889</v>
+        <v>1053.877663279709</v>
       </c>
       <c r="V10" t="n">
-        <v>510.040998651502</v>
+        <v>1053.877663279709</v>
       </c>
       <c r="W10" t="n">
-        <v>220.6238286145414</v>
+        <v>1053.877663279709</v>
       </c>
       <c r="X10" t="n">
-        <v>220.6238286145414</v>
+        <v>1053.877663279709</v>
       </c>
       <c r="Y10" t="n">
-        <v>220.6238286145414</v>
+        <v>833.085084136179</v>
       </c>
     </row>
     <row r="11">
@@ -5017,52 +5017,52 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192589</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111743</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075833</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332389</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
@@ -5074,19 +5074,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5117,22 +5117,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756265</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468469</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962605</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589157</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>1896.176478190825</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O12" t="n">
         <v>1896.176478190825</v>
@@ -5175,19 +5175,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400708</v>
+        <v>580.0655846733346</v>
       </c>
       <c r="C13" t="n">
-        <v>344.9174178121639</v>
+        <v>411.1294017454277</v>
       </c>
       <c r="D13" t="n">
-        <v>194.8007783998281</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E13" t="n">
-        <v>93.81666304797187</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F13" t="n">
-        <v>93.81666304797187</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G13" t="n">
         <v>93.81666304797187</v>
@@ -5202,10 +5202,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797741</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
@@ -5217,34 +5217,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
         <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>2043.673064443772</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>1754.597837787969</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>1499.913349582082</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611858</v>
+        <v>1210.496179545122</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138406</v>
+        <v>982.5066286471044</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703105</v>
+        <v>761.7140495035743</v>
       </c>
     </row>
     <row r="14">
@@ -5260,46 +5260,46 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192589</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5357,25 +5357,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756265</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>243.4633055756265</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>243.4633055756265</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>716.6687843969314</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951538</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>560.7825789706076</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C16" t="n">
-        <v>391.8463960427007</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D16" t="n">
-        <v>241.729756630365</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E16" t="n">
-        <v>93.81666304797187</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F16" t="n">
-        <v>93.81666304797187</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5439,10 +5439,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797741</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
@@ -5454,34 +5454,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2426.846358063199</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2243.991523718104</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T16" t="n">
-        <v>2024.390058741045</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U16" t="n">
-        <v>1735.314832085242</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V16" t="n">
-        <v>1480.630343879355</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W16" t="n">
-        <v>1191.213173842395</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X16" t="n">
-        <v>963.2236229443774</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y16" t="n">
-        <v>742.4310438008473</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="17">
@@ -5497,67 +5497,67 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192584</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
         <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014777</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355935</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068008</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694705</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852253</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398591</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492575</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474781</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5582,28 +5582,28 @@
         <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
-        <v>314.2396613568977</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G18" t="n">
-        <v>178.4809954028056</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273893</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803935</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516139</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>1074.481071167372</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1671.859558793924</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
         <v>2001.151557821488</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>734.6461798836004</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C19" t="n">
-        <v>734.6461798836004</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D19" t="n">
-        <v>734.6461798836004</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E19" t="n">
-        <v>631.7012443408905</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.140538179774</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.150240910808</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
         <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279801</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487566</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510507</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854705</v>
+        <v>1755.792692443183</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648818</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138402</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y19" t="n">
-        <v>916.2946447138402</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="20">
@@ -5740,49 +5740,49 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192582</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014777</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355935</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068007</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694705</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852253</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492576</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474782</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
         <v>4151.812499466573</v>
@@ -5825,28 +5825,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797183</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756264</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K21" t="n">
-        <v>243.4633055756264</v>
+        <v>280.8495004245705</v>
       </c>
       <c r="L21" t="n">
-        <v>352.5519571452622</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M21" t="n">
-        <v>949.9304447718139</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N21" t="n">
-        <v>1577.52840832642</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O21" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
         <v>2553.061288060775</v>
@@ -5886,16 +5886,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400703</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C22" t="n">
-        <v>513.8536007400703</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D22" t="n">
-        <v>513.8536007400703</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E22" t="n">
-        <v>513.8536007400703</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F22" t="n">
         <v>402.7245934908938</v>
@@ -5904,58 +5904,58 @@
         <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.140538179774</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.150240910808</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279801</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832662</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487566</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510507</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854705</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648818</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138402</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.50206557031</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="23">
@@ -5980,37 +5980,37 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797183</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
@@ -6025,13 +6025,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6056,37 +6056,37 @@
         <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
-        <v>314.2396613568977</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G24" t="n">
-        <v>178.4809954028056</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797183</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797183</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797183</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L24" t="n">
-        <v>589.1422692637307</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>716.6687843969303</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1344.266747951537</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6123,34 +6123,34 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>662.1522880254209</v>
+        <v>576.8388927589092</v>
       </c>
       <c r="C25" t="n">
-        <v>493.2161050975141</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="D25" t="n">
-        <v>343.0994656851783</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E25" t="n">
-        <v>343.0994656851783</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F25" t="n">
-        <v>343.0994656851783</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G25" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
         <v>826.1405381797747</v>
@@ -6171,28 +6171,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2442.902671851501</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487568</v>
+        <v>2260.047837506405</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510509</v>
+        <v>2040.446372529346</v>
       </c>
       <c r="U25" t="n">
-        <v>1836.684541140056</v>
+        <v>1751.371145873544</v>
       </c>
       <c r="V25" t="n">
-        <v>1582.000052934169</v>
+        <v>1496.686657667657</v>
       </c>
       <c r="W25" t="n">
-        <v>1292.582882897208</v>
+        <v>1207.269487630696</v>
       </c>
       <c r="X25" t="n">
-        <v>1064.593331999191</v>
+        <v>979.2799367326791</v>
       </c>
       <c r="Y25" t="n">
-        <v>843.8007528556607</v>
+        <v>758.4873575891489</v>
       </c>
     </row>
     <row r="26">
@@ -6208,40 +6208,40 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H26" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6302,25 +6302,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>1072.713683962606</v>
+        <v>904.4616873845483</v>
       </c>
       <c r="M27" t="n">
-        <v>1670.092171589158</v>
+        <v>1501.8401750111</v>
       </c>
       <c r="N27" t="n">
-        <v>2297.690135143765</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O27" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P27" t="n">
         <v>2553.061288060775</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>916.3099000622266</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>747.3737171343197</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>597.2570777219839</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="E28" t="n">
-        <v>449.3439841395908</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F28" t="n">
-        <v>449.3439841395908</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G28" t="n">
-        <v>282.1478848544708</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2379.917379832663</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>2090.842153176861</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1836.157664970974</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1546.740494934014</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1318.750944035996</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>1097.958364892466</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6445,28 +6445,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6475,10 +6475,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6539,31 +6539,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>244.2098454714573</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>739.5354516872161</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1336.913939313768</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1964.511902868375</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1057.613315601761</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>888.6771326738542</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>738.5604932615184</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E31" t="n">
-        <v>590.6473996791253</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F31" t="n">
-        <v>443.7574521812149</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G31" t="n">
-        <v>276.5613528960949</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
-        <v>134.849521738293</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1977.461080510509</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1977.461080510509</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1688.043910473548</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1460.054359575531</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>1239.261780432001</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6691,37 +6691,37 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6776,31 +6776,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>244.2098454714573</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>739.5354516872161</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1336.913939313768</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1964.511902868375</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3342.537229081859</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C34" t="n">
-        <v>3173.601046153952</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D34" t="n">
-        <v>3023.484406741616</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E34" t="n">
-        <v>2875.571313159223</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F34" t="n">
-        <v>2728.681365661313</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G34" t="n">
-        <v>2561.485266376193</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>4690.833152398593</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>4690.833152398593</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>4690.833152398593</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>4401.757925742791</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V34" t="n">
-        <v>4147.073437536905</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W34" t="n">
-        <v>3857.656267499944</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X34" t="n">
-        <v>3629.666716601927</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y34" t="n">
-        <v>3408.874137458397</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="35">
@@ -6928,43 +6928,43 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332384</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014776</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355934</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068007</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694705</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852253</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492576</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
         <v>4405.252601474784</v>
@@ -7004,40 +7004,40 @@
         <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
-        <v>314.2396613568977</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G36" t="n">
-        <v>178.4809954028056</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797183</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756265</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>454.6048385560546</v>
       </c>
       <c r="L36" t="n">
-        <v>1072.713683962606</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="M36" t="n">
-        <v>1670.092171589158</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N36" t="n">
-        <v>2297.690135143765</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O36" t="n">
-        <v>2516.421633107662</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>580.8993044876693</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>411.9631215597624</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D37" t="n">
-        <v>407.9027098310022</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E37" t="n">
-        <v>407.9027098310022</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F37" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G37" t="n">
-        <v>93.81666304797183</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797183</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>983.3403484614391</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>762.547769317909</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7150,34 +7150,34 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551873</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611461</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004711</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406466</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168588</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362663</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7186,40 +7186,40 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355934</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068007</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694705</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852253</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492576</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474782</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466571</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852886</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591806</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615995</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7241,40 +7241,40 @@
         <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
-        <v>314.2396613568977</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G39" t="n">
-        <v>178.4809954028056</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797183</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756265</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>454.6048385560546</v>
       </c>
       <c r="L39" t="n">
-        <v>1072.713683962606</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="M39" t="n">
-        <v>1670.092171589158</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N39" t="n">
-        <v>2297.690135143765</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O39" t="n">
-        <v>2516.421633107662</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>707.672526468518</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C40" t="n">
-        <v>538.7363435406111</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D40" t="n">
-        <v>388.6197041282753</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E40" t="n">
-        <v>240.7066105458822</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F40" t="n">
-        <v>93.81666304797183</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G40" t="n">
-        <v>93.81666304797183</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.963083580261</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S40" t="n">
-        <v>2264.108249235165</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T40" t="n">
-        <v>2044.506784258106</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U40" t="n">
-        <v>1755.431557602304</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V40" t="n">
-        <v>1500.747069396417</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W40" t="n">
-        <v>1211.329899359456</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X40" t="n">
-        <v>983.3403484614391</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y40" t="n">
-        <v>762.547769317909</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="41">
@@ -7405,22 +7405,22 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J41" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N41" t="n">
         <v>2950.898526355938</v>
@@ -7429,25 +7429,25 @@
         <v>3640.422291068011</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
         <v>3467.980956852889</v>
@@ -7475,7 +7475,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7484,34 +7484,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>243.4633055756266</v>
+        <v>454.6048385560546</v>
       </c>
       <c r="L42" t="n">
-        <v>315.9123021921476</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="M42" t="n">
-        <v>913.2907898186995</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N42" t="n">
-        <v>1540.888753373306</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O42" t="n">
-        <v>2092.798483612593</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>763.7541388327652</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C43" t="n">
-        <v>594.8179559048583</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D43" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E43" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.963083580261</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S43" t="n">
-        <v>2446.963083580261</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T43" t="n">
-        <v>2227.361618603202</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U43" t="n">
-        <v>1938.2863919474</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V43" t="n">
-        <v>1683.601903741513</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W43" t="n">
-        <v>1394.184733704552</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X43" t="n">
-        <v>1166.195182806535</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y43" t="n">
-        <v>945.4026036630049</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="44">
@@ -7654,16 +7654,16 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7724,25 +7724,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>577.3880777468471</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="M45" t="n">
-        <v>1174.766565373399</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N45" t="n">
-        <v>1802.364528928006</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O45" t="n">
-        <v>2354.274259167293</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P45" t="n">
         <v>2553.061288060775</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>631.7012443408906</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C46" t="n">
-        <v>631.7012443408906</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D46" t="n">
-        <v>631.7012443408906</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E46" t="n">
-        <v>631.7012443408906</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7830,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703109</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
   </sheetData>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8072,13 +8072,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
-        <v>274.4264991783515</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.64146763747166</v>
+        <v>90.64146763747119</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8452,28 +8452,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>324.1454125711647</v>
+        <v>35.04072454780376</v>
       </c>
       <c r="L8" t="n">
-        <v>312.2066704284449</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O8" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P8" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>65.71641987298243</v>
@@ -8534,16 +8534,16 @@
         <v>6.233205181928369</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>167.9634363311153</v>
+        <v>176.8008973295432</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8689,7 +8689,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>3.069544618483633e-12</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -8935,7 +8935,7 @@
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>3.069544618483633e-12</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
@@ -10129,7 +10129,7 @@
         <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>-1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
@@ -10591,7 +10591,7 @@
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>-2.945240385875868e-12</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
@@ -10834,7 +10834,7 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>-3.069544618483633e-12</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
         <v>0</v>
@@ -23424,19 +23424,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>46.45968844823146</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856556</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23469,7 +23469,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>65.54986409393072</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23658,22 +23658,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856556</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>46.45968844823154</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23709,7 +23709,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>72.11969353038609</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23892,13 +23892,13 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>44.51847645928636</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -23946,19 +23946,19 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>66.73277020259223</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24129,7 +24129,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24138,7 +24138,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>35.40333084624653</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24147,7 +24147,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856556</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24369,13 +24369,13 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24384,7 +24384,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>62.35543909864896</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24420,7 +24420,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>146.8157004124956</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24606,22 +24606,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>40.32043864788574</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>35.11263957635548</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24651,10 +24651,10 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24846,19 +24846,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>40.64330621514761</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24894,10 +24894,10 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25074,19 +25074,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>114.1584408891644</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25095,7 +25095,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,16 +25122,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25314,25 +25314,25 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="D37" t="n">
-        <v>144.5956654067398</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25548,28 +25548,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>125.5054897610402</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25791,7 +25791,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>39.70888054695304</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25806,7 +25806,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -26022,19 +26022,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>116.6691671648112</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>139.469330230033</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -26043,7 +26043,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>751490.1564333542</v>
+        <v>751490.1564333544</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>751490.1564333542</v>
+        <v>751490.1564333544</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>751490.1564333544</v>
+        <v>751490.1564333542</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>751490.1564333545</v>
+        <v>751490.1564333542</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>751490.1564333545</v>
+        <v>751490.1564333542</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>751490.1564333545</v>
+        <v>751490.1564333542</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>751490.1564333542</v>
+        <v>751490.1564333544</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>751490.1564333541</v>
+        <v>751490.1564333542</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>751490.1564333545</v>
+        <v>751490.1564333542</v>
       </c>
     </row>
     <row r="16">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>677359.4601380333</v>
+        <v>677359.4601380334</v>
       </c>
       <c r="C2" t="n">
-        <v>677359.4601380333</v>
+        <v>677359.4601380335</v>
       </c>
       <c r="D2" t="n">
-        <v>677359.460138034</v>
+        <v>677359.4601380338</v>
       </c>
       <c r="E2" t="n">
         <v>665895.9447442548</v>
       </c>
       <c r="F2" t="n">
-        <v>665895.9447442545</v>
+        <v>665895.944744255</v>
       </c>
       <c r="G2" t="n">
-        <v>665895.9447442546</v>
+        <v>665895.9447442549</v>
       </c>
       <c r="H2" t="n">
-        <v>665895.9447442547</v>
+        <v>665895.9447442552</v>
       </c>
       <c r="I2" t="n">
-        <v>665895.9447442555</v>
+        <v>665895.9447442549</v>
       </c>
       <c r="J2" t="n">
+        <v>665895.9447442548</v>
+      </c>
+      <c r="K2" t="n">
         <v>665895.9447442552</v>
       </c>
-      <c r="K2" t="n">
+      <c r="L2" t="n">
         <v>665895.9447442548</v>
       </c>
-      <c r="L2" t="n">
-        <v>665895.9447442552</v>
-      </c>
       <c r="M2" t="n">
-        <v>665895.9447442548</v>
+        <v>665895.944744255</v>
       </c>
       <c r="N2" t="n">
         <v>665895.9447442549</v>
       </c>
       <c r="O2" t="n">
-        <v>665895.9447442548</v>
+        <v>665895.9447442547</v>
       </c>
       <c r="P2" t="n">
-        <v>665895.9447442549</v>
+        <v>665895.9447442547</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,7 +26374,7 @@
         <v>184756.2785481116</v>
       </c>
       <c r="E3" t="n">
-        <v>771052.691380806</v>
+        <v>771052.6913808064</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26383,13 +26383,13 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.741016149026109e-10</v>
       </c>
       <c r="I3" t="n">
-        <v>5.134659204486525e-10</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925928</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,10 +26398,10 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>124208.5107080584</v>
+        <v>124208.5107080585</v>
       </c>
       <c r="N3" t="n">
-        <v>5.152539214846428e-11</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26426,37 +26426,37 @@
         <v>176266.9759012794</v>
       </c>
       <c r="E4" t="n">
-        <v>5677.536566682794</v>
+        <v>5677.536566682745</v>
       </c>
       <c r="F4" t="n">
-        <v>5677.536566682793</v>
+        <v>5677.536566682744</v>
       </c>
       <c r="G4" t="n">
-        <v>5677.536566682786</v>
+        <v>5677.536566682744</v>
       </c>
       <c r="H4" t="n">
-        <v>5677.536566682826</v>
+        <v>5677.536566682744</v>
       </c>
       <c r="I4" t="n">
-        <v>5677.536566682727</v>
+        <v>5677.536566682745</v>
       </c>
       <c r="J4" t="n">
+        <v>5677.536566682744</v>
+      </c>
+      <c r="K4" t="n">
         <v>5677.536566682745</v>
-      </c>
-      <c r="K4" t="n">
-        <v>5677.536566682727</v>
       </c>
       <c r="L4" t="n">
         <v>5677.536566682745</v>
       </c>
       <c r="M4" t="n">
-        <v>5677.536566682737</v>
+        <v>5677.536566682745</v>
       </c>
       <c r="N4" t="n">
-        <v>5677.536566682799</v>
+        <v>5677.536566682745</v>
       </c>
       <c r="O4" t="n">
-        <v>5677.536566682744</v>
+        <v>5677.536566682745</v>
       </c>
       <c r="P4" t="n">
         <v>5677.536566682744</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-205389.912602954</v>
+        <v>-205389.9126029538</v>
       </c>
       <c r="C6" t="n">
-        <v>384577.9666115905</v>
+        <v>384577.9666115907</v>
       </c>
       <c r="D6" t="n">
-        <v>228774.1605177962</v>
+        <v>228774.1605177961</v>
       </c>
       <c r="E6" t="n">
-        <v>-211956.8130271411</v>
+        <v>-212304.1922814984</v>
       </c>
       <c r="F6" t="n">
-        <v>559095.8783536647</v>
+        <v>558748.4990993083</v>
       </c>
       <c r="G6" t="n">
-        <v>559095.8783536649</v>
+        <v>558748.4990993082</v>
       </c>
       <c r="H6" t="n">
-        <v>559095.8783536648</v>
+        <v>558748.4990993083</v>
       </c>
       <c r="I6" t="n">
-        <v>559095.8783536652</v>
+        <v>558748.4990993082</v>
       </c>
       <c r="J6" t="n">
-        <v>382672.6591610723</v>
+        <v>382325.2799067152</v>
       </c>
       <c r="K6" t="n">
-        <v>559095.878353665</v>
+        <v>558748.4990993084</v>
       </c>
       <c r="L6" t="n">
-        <v>559095.8783536654</v>
+        <v>558748.499099308</v>
       </c>
       <c r="M6" t="n">
-        <v>434887.3676456066</v>
+        <v>434539.9883912497</v>
       </c>
       <c r="N6" t="n">
-        <v>559095.8783536651</v>
+        <v>558748.4990993082</v>
       </c>
       <c r="O6" t="n">
-        <v>559095.8783536649</v>
+        <v>558748.4990993079</v>
       </c>
       <c r="P6" t="n">
-        <v>559095.8783536652</v>
+        <v>558748.4990993079</v>
       </c>
     </row>
   </sheetData>
@@ -26700,13 +26700,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>6.440674018558035e-14</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>6.440674018558035e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>6.440674018558035e-14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26737,25 +26737,25 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>377.7436642170866</v>
+      </c>
+      <c r="C3" t="n">
         <v>377.7436642170867</v>
-      </c>
-      <c r="C3" t="n">
-        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
         <v>593.4761003380651</v>
       </c>
       <c r="E3" t="n">
-        <v>1367.975500341673</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="F3" t="n">
-        <v>1367.975500341673</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="G3" t="n">
-        <v>1367.975500341673</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="H3" t="n">
-        <v>1367.975500341673</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="I3" t="n">
         <v>1367.975500341674</v>
@@ -26828,7 +26828,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="P4" t="n">
         <v>1172.708288099648</v>
@@ -26922,7 +26922,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>6.440674018558035e-14</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26943,7 +26943,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>6.440674018558035e-14</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>215.7324361209784</v>
       </c>
       <c r="E3" t="n">
-        <v>774.4994000036082</v>
+        <v>774.4994000036087</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26977,10 +26977,10 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="I3" t="n">
-        <v>6.821210263296962e-13</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545562</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>498.4210153450923</v>
+        <v>498.4210153450928</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27159,7 +27159,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>6.440674018558035e-14</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27378,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27396,10 +27396,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,13 +27429,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>144.8005573570965</v>
       </c>
       <c r="U2" t="n">
-        <v>145.8803980601936</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27447,7 +27447,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27539,28 +27539,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>7.143147897951891</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27599,10 +27599,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>88.99350972179718</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27618,25 +27618,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>230.4606710833241</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,28 +27663,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>42.56694208374632</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27797,7 +27797,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,31 +27818,31 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>231.8063182229441</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>28.98780970275067</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27855,19 +27855,19 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>302.5591973444695</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>315.0408840752156</v>
@@ -27903,16 +27903,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>154.6528871281402</v>
+        <v>10.91283628683036</v>
       </c>
       <c r="T8" t="n">
-        <v>212.651863114966</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -28010,25 +28010,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>166.9207765545704</v>
       </c>
       <c r="H10" t="n">
-        <v>128.6604581041833</v>
+        <v>142.6262790074123</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -28067,19 +28067,19 @@
         <v>223.3729047207587</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28563,25 +28563,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>6.440674018558035e-14</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>6.440674018558035e-14</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>6.440674018558035e-14</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>6.440674018558035e-14</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>6.440674018558035e-14</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>6.440674018558035e-14</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>6.440674018558035e-14</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -28614,25 +28614,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>6.440674018558035e-14</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>6.440674018558035e-14</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>6.440674018558035e-14</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>6.440674018558035e-14</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>6.440674018558035e-14</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>6.440674018558035e-14</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>6.440674018558035e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -28803,13 +28803,13 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>6.440674018558035e-14</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>6.440674018558035e-14</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>6.440674018558035e-14</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -28857,7 +28857,7 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>1.544467156611002e-12</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -28869,7 +28869,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>6.440674018558035e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -29988,10 +29988,10 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>-6.440674018558035e-14</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>-6.440674018558035e-14</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -30039,22 +30039,22 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>1.449507180950604e-12</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>-6.440674018558035e-14</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>-6.440674018558035e-14</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>-6.440674018558035e-14</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>-6.440674018558035e-14</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>-6.440674018558035e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -30240,7 +30240,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>2.273736754432321e-12</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -31047,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31074,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31223,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31284,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31311,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31460,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135338</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817573</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162558</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175671</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159422</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460025</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236505</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.873223366922</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043724</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
         <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078744</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,46 +31831,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659448</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521099</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422584</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.883274947307</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862118</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>359.7096985496644</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>369.1789913099997</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214697</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485289</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
         <v>0.1935814387275954</v>
@@ -31916,28 +31916,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869272</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106787</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417313</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
         <v>206.5643005515927</v>
@@ -31946,7 +31946,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135338</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817573</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162558</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175671</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159422</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460025</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236505</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.873223366922</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043724</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
         <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078744</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,46 +32068,46 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659448</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521099</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>620.1193660647506</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071782</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437241</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214697</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485289</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
         <v>0.1935814387275954</v>
@@ -32153,28 +32153,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869272</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106787</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417313</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
         <v>206.5643005515927</v>
@@ -32183,7 +32183,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135338</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817573</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162558</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175671</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159422</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460025</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236505</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.873223366922</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043724</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
         <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078744</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,31 +32305,31 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659448</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521099</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422584</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.883274947307</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862118</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>463.9598929192568</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437241</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32341,10 +32341,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
         <v>0.1935814387275954</v>
@@ -32390,28 +32390,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869272</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106787</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P19" t="n">
-        <v>298.3532140417313</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
         <v>206.5643005515927</v>
@@ -32420,7 +32420,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
-        <v>56.32071997135338</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817573</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162558</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175671</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159422</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460025</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236505</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.873223366922</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043724</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078744</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,34 +32542,34 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659448</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521099</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>173.8200325543355</v>
       </c>
       <c r="L21" t="n">
-        <v>248.7449369209205</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862118</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071782</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437241</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214697</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -32578,13 +32578,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,46 +32624,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869272</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106787</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P22" t="n">
-        <v>298.3532140417313</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32785,31 +32785,31 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
         <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>270.948695672725</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,34 +33016,34 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>467.1465236515248</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>400.5469039565762</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -33052,13 +33052,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33186,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,31 +33253,31 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>138.5955196772183</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33286,16 +33286,16 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33423,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,31 +33490,31 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>138.5955196772183</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33523,16 +33523,16 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33660,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422586</v>
+        <v>349.3304751113902</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>363.5371514786841</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33897,31 +33897,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422586</v>
+        <v>349.3304751113902</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>363.5371514786841</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34134,31 +34134,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>349.3304751113902</v>
       </c>
       <c r="L42" t="n">
-        <v>211.7351844430268</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34444,7 +34444,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
@@ -34453,10 +34453,10 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>513.0745614164389</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
@@ -34465,7 +34465,7 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>334.7693860946154</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34789,16 +34789,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
-        <v>325.1459203262118</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34935,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35026,16 +35026,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.37527471535667</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35172,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.5453525391276</v>
+        <v>21.44873736705384</v>
       </c>
       <c r="K8" t="n">
-        <v>407.5425384040863</v>
+        <v>118.4378503807253</v>
       </c>
       <c r="L8" t="n">
-        <v>452.9426864297107</v>
+        <v>558.3972305517163</v>
       </c>
       <c r="M8" t="n">
-        <v>188.5852654802098</v>
+        <v>638.0987989730422</v>
       </c>
       <c r="N8" t="n">
-        <v>196.2971847393761</v>
+        <v>633.6441091513602</v>
       </c>
       <c r="O8" t="n">
         <v>552.6880856233105</v>
       </c>
       <c r="P8" t="n">
-        <v>433.6515619588832</v>
+        <v>111.8528537874005</v>
       </c>
       <c r="Q8" t="n">
-        <v>247.6524856312129</v>
+        <v>35.33749497130819</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35254,16 +35254,16 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>332.7559639452625</v>
+        <v>68.29072693268387</v>
       </c>
       <c r="L9" t="n">
         <v>509.4561008748672</v>
       </c>
       <c r="M9" t="n">
-        <v>181.3104407622271</v>
+        <v>647.0155045122269</v>
       </c>
       <c r="N9" t="n">
-        <v>368.6268117378473</v>
+        <v>377.4642727362752</v>
       </c>
       <c r="O9" t="n">
         <v>554.9858674269929</v>
@@ -35272,7 +35272,7 @@
         <v>428.2502711927643</v>
       </c>
       <c r="Q9" t="n">
-        <v>233.0438950105733</v>
+        <v>22.96660727472423</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317199</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396449</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367768</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462685</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902944</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193513</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243157</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683809</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924725</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902403</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,31 +35485,31 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678994</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674328</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>228.3679864663311</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>226.5827468655553</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071394</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625074</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.0464832629533</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096348</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191313</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010449</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
-        <v>295.6317733066248</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317199</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396418</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367768</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462685</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902975</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193513</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243157</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683809</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924725</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902403</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>477.9853321427323</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238449</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992796</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071394</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625074</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.0464832629533</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096348</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191313</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010449</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
-        <v>295.6317733066248</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317199</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396418</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367768</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462685</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902944</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193513</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243157</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683809</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902403</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,25 +35959,25 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774872</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678994</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674328</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>332.6181808359236</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992796</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.0464832629533</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096348</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191313</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010449</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
-        <v>295.6317733066248</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317199</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
-        <v>285.7087110396418</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367768</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462685</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902944</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193513</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243157</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683809</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924725</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902403</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,28 +36196,28 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>35.97859357997653</v>
       </c>
       <c r="L21" t="n">
-        <v>110.1905571410463</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238449</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992796</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071394</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.0464832629533</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096348</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191313</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010449</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
-        <v>295.6317733066248</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q22" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36375,7 +36375,7 @@
         <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683802</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
         <v>371.5675334924729</v>
@@ -36433,31 +36433,31 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
         <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
-        <v>128.8146617507067</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36679,19 +36679,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>328.5921438716506</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>257.9506595121318</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683802</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,25 +36907,25 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0.7540807028593151</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -36934,7 +36934,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,25 +37144,25 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0.7540807028593151</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37171,7 +37171,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462657</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,34 +37381,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>211.4890361370312</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>220.9409070342396</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193487</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,34 +37618,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>211.4890361370312</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>220.9409070342396</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,34 +37855,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>211.4890361370312</v>
       </c>
       <c r="L42" t="n">
-        <v>73.1808046631526</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38101,10 +38101,10 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>374.5201816365647</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
@@ -38113,7 +38113,7 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>200.7949786802852</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_8_33.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_8_33.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2895818.165260369</v>
+        <v>2897578.695563155</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283187</v>
+        <v>416855.1052283184</v>
       </c>
     </row>
     <row r="9">
@@ -670,7 +670,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>262.0754883846155</v>
       </c>
       <c r="G2" t="n">
         <v>413.784170020795</v>
@@ -712,7 +712,7 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>71.64776300056134</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
@@ -816,13 +816,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -834,7 +834,7 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -870,7 +870,7 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>25.2529242564392</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -879,7 +879,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>197.5294886147938</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -901,19 +901,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -943,10 +943,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>11.91146049106538</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>144.5394096538124</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -995,7 +995,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1059,7 +1059,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>6.596015618368514</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1113,16 +1113,16 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>196.7218456862865</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1138,7 +1138,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1147,7 +1147,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>12.9169039459368</v>
+        <v>396.2396010527604</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1183,16 +1183,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>143.7400508413098</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>212.651863114966</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1293,7 +1293,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -1305,16 +1305,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.9207765545704</v>
       </c>
       <c r="H10" t="n">
-        <v>10.0858176618203</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>123.266557879417</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>17.69584188176898</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1359,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>35.46527312190288</v>
       </c>
     </row>
     <row r="11">
@@ -1530,25 +1530,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>101.9154861872836</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1581,7 +1581,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>151.8555862333575</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1596,7 +1596,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1770,22 +1770,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,16 +1812,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>25.52471385612679</v>
       </c>
       <c r="U16" t="n">
-        <v>214.0647808588581</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1894,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -2013,7 +2013,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
@@ -2022,7 +2022,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,25 +2049,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>100.0416311957217</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>219.4517041866519</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2149,7 +2149,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="21">
@@ -2238,19 +2238,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
@@ -2259,7 +2259,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,16 +2286,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>9.146142788179931</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>104.4564809702501</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2487,16 +2487,16 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>4.019807611472697</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>108.9065924712588</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2572,7 +2572,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2718,16 +2718,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
+        <v>0</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" t="n">
         <v>108.2950343703266</v>
-      </c>
-      <c r="E28" t="n">
-        <v>0</v>
-      </c>
-      <c r="F28" t="n">
-        <v>0</v>
-      </c>
-      <c r="G28" t="n">
-        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
@@ -2949,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>96.03245356584297</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>99.97427419833815</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3000,7 +3000,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3125,7 +3125,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H33" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3204,7 +3204,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3243,7 +3243,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3277,7 +3277,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G35" t="n">
         <v>409.8033385187866</v>
@@ -3316,10 +3316,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
         <v>250.9057009881286</v>
@@ -3362,7 +3362,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H36" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3423,10 +3423,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>28.75188085812005</v>
+        <v>63.1628130171261</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3435,7 +3435,7 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
@@ -3444,7 +3444,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3517,7 +3517,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3666,19 +3666,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>99.97427419833861</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3903,19 +3903,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>99.97427419833861</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -4137,10 +4137,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="D46" t="n">
-        <v>9.146142788179368</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4155,7 +4155,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4306,16 +4306,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1422.14692331494</v>
+        <v>1275.883734065348</v>
       </c>
       <c r="C2" t="n">
-        <v>1422.14692331494</v>
+        <v>1275.883734065348</v>
       </c>
       <c r="D2" t="n">
-        <v>1422.14692331494</v>
+        <v>1275.883734065348</v>
       </c>
       <c r="E2" t="n">
-        <v>1036.358670716696</v>
+        <v>890.0954814671036</v>
       </c>
       <c r="F2" t="n">
         <v>625.3727659270879</v>
@@ -4330,19 +4330,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K2" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4360,22 +4360,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2393.571436084541</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2139.809650722632</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>1808.746763379062</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>1808.746763379062</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="X2" t="n">
-        <v>1808.746763379062</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="Y2" t="n">
-        <v>1808.746763379062</v>
+        <v>1662.48357412947</v>
       </c>
     </row>
     <row r="3">
@@ -4385,22 +4385,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
@@ -4409,25 +4409,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4448,10 +4448,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4464,22 +4464,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>528.604248231895</v>
+        <v>520.9725150767609</v>
       </c>
       <c r="C4" t="n">
-        <v>528.604248231895</v>
+        <v>520.9725150767609</v>
       </c>
       <c r="D4" t="n">
-        <v>528.604248231895</v>
+        <v>370.8558756644252</v>
       </c>
       <c r="E4" t="n">
-        <v>380.6911546495019</v>
+        <v>222.942782082032</v>
       </c>
       <c r="F4" t="n">
-        <v>380.6911546495019</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G4" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
         <v>53.94298182036445</v>
@@ -4518,22 +4518,22 @@
         <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>702.6209799070007</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064342</v>
+        <v>702.6209799070007</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064342</v>
+        <v>702.6209799070007</v>
       </c>
       <c r="W4" t="n">
-        <v>528.604248231895</v>
+        <v>702.6209799070007</v>
       </c>
       <c r="X4" t="n">
-        <v>528.604248231895</v>
+        <v>702.6209799070007</v>
       </c>
       <c r="Y4" t="n">
-        <v>528.604248231895</v>
+        <v>702.6209799070007</v>
       </c>
     </row>
     <row r="5">
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1745.334734821698</v>
+        <v>1732.515907621104</v>
       </c>
       <c r="C5" t="n">
-        <v>1376.372217881286</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="D5" t="n">
-        <v>1018.106519274536</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="E5" t="n">
-        <v>632.3182666762915</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F5" t="n">
-        <v>221.3323618866839</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G5" t="n">
-        <v>207.4089578252748</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H5" t="n">
         <v>207.4089578252748</v>
@@ -4567,19 +4567,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2685.117312744419</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2508.939825058589</v>
+        <v>2496.120997857996</v>
       </c>
       <c r="T5" t="n">
-        <v>2508.939825058589</v>
+        <v>2496.120997857996</v>
       </c>
       <c r="U5" t="n">
-        <v>2508.939825058589</v>
+        <v>2496.120997857996</v>
       </c>
       <c r="V5" t="n">
-        <v>2508.939825058589</v>
+        <v>2496.120997857996</v>
       </c>
       <c r="W5" t="n">
-        <v>2508.939825058589</v>
+        <v>2496.120997857996</v>
       </c>
       <c r="X5" t="n">
-        <v>2135.474066797509</v>
+        <v>2122.655239596916</v>
       </c>
       <c r="Y5" t="n">
-        <v>1745.334734821698</v>
+        <v>1732.515907621104</v>
       </c>
     </row>
     <row r="6">
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>53.94298182036445</v>
+        <v>210.7222632714563</v>
       </c>
       <c r="C7" t="n">
-        <v>53.94298182036445</v>
+        <v>210.7222632714563</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036445</v>
+        <v>60.60562385912053</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036445</v>
+        <v>60.60562385912053</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>60.60562385912053</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>60.60562385912053</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>60.60562385912053</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>60.60562385912053</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4731,46 +4731,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>473.4444960005476</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W7" t="n">
-        <v>473.4444960005476</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="X7" t="n">
-        <v>274.7355609638946</v>
+        <v>210.7222632714563</v>
       </c>
       <c r="Y7" t="n">
-        <v>53.94298182036445</v>
+        <v>210.7222632714563</v>
       </c>
     </row>
     <row r="8">
@@ -4780,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1186.952328438143</v>
+        <v>1215.881273373638</v>
       </c>
       <c r="C8" t="n">
-        <v>817.9898114977311</v>
+        <v>846.9187564332267</v>
       </c>
       <c r="D8" t="n">
-        <v>459.7241128909807</v>
+        <v>846.9187564332267</v>
       </c>
       <c r="E8" t="n">
-        <v>73.93586029273641</v>
+        <v>461.1305038349824</v>
       </c>
       <c r="F8" t="n">
-        <v>66.99035954353293</v>
+        <v>454.185003085779</v>
       </c>
       <c r="G8" t="n">
         <v>53.94298182036445</v>
@@ -4831,25 +4831,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2551.957120471445</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2337.157258739156</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U8" t="n">
-        <v>2337.157258739156</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V8" t="n">
-        <v>2337.157258739156</v>
+        <v>2366.086203674652</v>
       </c>
       <c r="W8" t="n">
-        <v>2337.157258739156</v>
+        <v>2366.086203674652</v>
       </c>
       <c r="X8" t="n">
-        <v>1963.691500478076</v>
+        <v>1992.620445413572</v>
       </c>
       <c r="Y8" t="n">
-        <v>1573.552168502265</v>
+        <v>1602.48111343776</v>
       </c>
     </row>
     <row r="9">
@@ -4886,13 +4886,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>121.5508014837215</v>
+        <v>194.8279733160485</v>
       </c>
       <c r="L9" t="n">
-        <v>625.9123413498401</v>
+        <v>332.0575713317425</v>
       </c>
       <c r="M9" t="n">
-        <v>1266.457690816945</v>
+        <v>972.6029207988471</v>
       </c>
       <c r="N9" t="n">
         <v>1640.147320825857</v>
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>651.4366193059393</v>
+        <v>836.4056902455271</v>
       </c>
       <c r="C10" t="n">
-        <v>651.4366193059393</v>
+        <v>667.4695073176202</v>
       </c>
       <c r="D10" t="n">
-        <v>501.3199798936035</v>
+        <v>517.3528679052845</v>
       </c>
       <c r="E10" t="n">
-        <v>353.4068863112104</v>
+        <v>369.4397743228914</v>
       </c>
       <c r="F10" t="n">
-        <v>206.5169388133001</v>
+        <v>222.5498268249811</v>
       </c>
       <c r="G10" t="n">
-        <v>206.5169388133001</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>196.3292442054008</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>71.81756957972706</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036445</v>
@@ -5007,7 +5007,7 @@
         <v>1053.877663279709</v>
       </c>
       <c r="Y10" t="n">
-        <v>833.085084136179</v>
+        <v>1018.054155075767</v>
       </c>
     </row>
     <row r="11">
@@ -5038,25 +5038,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694707</v>
@@ -5129,10 +5129,10 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1671.859558793925</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N12" t="n">
-        <v>1671.859558793925</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O12" t="n">
         <v>1896.176478190825</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>580.0655846733346</v>
+        <v>734.6461798836013</v>
       </c>
       <c r="C13" t="n">
-        <v>411.1294017454277</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="D13" t="n">
-        <v>261.0127623330919</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="E13" t="n">
-        <v>261.0127623330919</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F13" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
@@ -5229,22 +5229,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2043.673064443772</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1754.597837787969</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1499.913349582082</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1210.496179545122</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>982.5066286471044</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>761.7140495035743</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
     <row r="14">
@@ -5275,13 +5275,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5290,7 +5290,7 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
         <v>3640.422291068009</v>
@@ -5357,22 +5357,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589158</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N15" t="n">
-        <v>2001.151557821488</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O15" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>653.7474797708871</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C16" t="n">
-        <v>484.8112968429803</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D16" t="n">
-        <v>484.8112968429803</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E16" t="n">
-        <v>484.8112968429803</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>2044.506784258106</v>
+        <v>2171.280006238955</v>
       </c>
       <c r="U16" t="n">
-        <v>1828.279732885522</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V16" t="n">
-        <v>1573.595244679635</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W16" t="n">
-        <v>1284.178074642674</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X16" t="n">
-        <v>1056.188523744657</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y16" t="n">
-        <v>835.3959446011269</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="17">
@@ -5512,28 +5512,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
         <v>4562.265728852255</v>
@@ -5551,13 +5551,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5591,28 +5591,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L18" t="n">
         <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1671.859558793925</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="N18" t="n">
-        <v>2001.151557821488</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O18" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1098.667160263527</v>
+        <v>951.7772127656159</v>
       </c>
       <c r="C19" t="n">
-        <v>929.7309773356195</v>
+        <v>782.841029837709</v>
       </c>
       <c r="D19" t="n">
-        <v>779.6143379232838</v>
+        <v>632.7243904253733</v>
       </c>
       <c r="E19" t="n">
-        <v>631.7012443408906</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2345.91093085731</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>2126.309465880251</v>
       </c>
       <c r="U19" t="n">
-        <v>1755.792692443183</v>
+        <v>2126.309465880251</v>
       </c>
       <c r="V19" t="n">
-        <v>1501.108204237296</v>
+        <v>1871.624977674364</v>
       </c>
       <c r="W19" t="n">
-        <v>1501.108204237296</v>
+        <v>1582.207807637403</v>
       </c>
       <c r="X19" t="n">
-        <v>1501.108204237296</v>
+        <v>1354.218256739386</v>
       </c>
       <c r="Y19" t="n">
-        <v>1280.315625093766</v>
+        <v>1133.425677595856</v>
       </c>
     </row>
     <row r="20">
@@ -5740,40 +5740,40 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
         <v>378.1925803111716</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075808</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
@@ -5828,31 +5828,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>280.8495004245705</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>776.1751066403293</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>1373.553594266881</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>2001.151557821488</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O21" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>571.6607764188008</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C22" t="n">
-        <v>402.7245934908938</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D22" t="n">
-        <v>402.7245934908938</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E22" t="n">
-        <v>402.7245934908938</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5934,28 +5934,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>2035.268256189238</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="U22" t="n">
-        <v>1746.193029533436</v>
+        <v>2091.550948547921</v>
       </c>
       <c r="V22" t="n">
-        <v>1491.508541327549</v>
+        <v>1836.866460342034</v>
       </c>
       <c r="W22" t="n">
-        <v>1202.091371290588</v>
+        <v>1547.449290305074</v>
       </c>
       <c r="X22" t="n">
-        <v>974.1018203925706</v>
+        <v>1319.459739407056</v>
       </c>
       <c r="Y22" t="n">
-        <v>753.3092412490405</v>
+        <v>1098.667160263526</v>
       </c>
     </row>
     <row r="23">
@@ -5980,37 +5980,37 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111703</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
@@ -6025,13 +6025,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6065,22 +6065,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516144</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L24" t="n">
-        <v>1074.481071167373</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M24" t="n">
-        <v>1671.859558793925</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N24" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O24" t="n">
         <v>2553.061288060775</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>576.8388927589092</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C25" t="n">
-        <v>407.9027098310023</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D25" t="n">
-        <v>407.9027098310023</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E25" t="n">
-        <v>407.9027098310023</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F25" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2442.902671851501</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S25" t="n">
-        <v>2260.047837506405</v>
+        <v>2336.956424518383</v>
       </c>
       <c r="T25" t="n">
-        <v>2040.446372529346</v>
+        <v>2117.354959541324</v>
       </c>
       <c r="U25" t="n">
-        <v>1751.371145873544</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V25" t="n">
-        <v>1496.686657667657</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W25" t="n">
-        <v>1207.269487630696</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X25" t="n">
-        <v>979.2799367326791</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y25" t="n">
-        <v>758.4873575891489</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="26">
@@ -6208,16 +6208,16 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
@@ -6241,7 +6241,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6311,16 +6311,16 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>904.4616873845483</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1501.8401750111</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>2129.438138565707</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
         <v>2553.061288060775</v>
@@ -6366,13 +6366,13 @@
         <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>235.5284942057738</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E28" t="n">
-        <v>235.5284942057738</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F28" t="n">
-        <v>235.5284942057738</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G28" t="n">
         <v>235.5284942057738</v>
@@ -6451,16 +6451,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
         <v>378.1925803111715</v>
@@ -6472,10 +6472,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6554,7 +6554,7 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O30" t="n">
         <v>2553.061288060775</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400712</v>
+        <v>781.3544215660705</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121643</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="D31" t="n">
-        <v>194.8007783998286</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="E31" t="n">
-        <v>93.81666304797187</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F31" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G31" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6648,25 +6648,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138411</v>
+        <v>1099.149479058937</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703109</v>
+        <v>878.3568999154069</v>
       </c>
     </row>
     <row r="32">
@@ -6676,49 +6676,49 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q32" t="n">
         <v>4562.265728852256</v>
@@ -6733,19 +6733,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6764,7 +6764,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6776,28 +6776,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J33" t="n">
         <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516142</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L33" t="n">
-        <v>1074.481071167373</v>
+        <v>542.9134462654475</v>
       </c>
       <c r="M33" t="n">
-        <v>1671.859558793925</v>
+        <v>1140.291933891999</v>
       </c>
       <c r="N33" t="n">
-        <v>2299.457522348532</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O33" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q33" t="n">
         <v>2553.061288060775</v>
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H34" t="n">
         <v>93.81666304797187</v>
@@ -6861,10 +6861,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
@@ -6891,19 +6891,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6919,10 +6919,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
         <v>793.7736536168611</v>
@@ -6934,31 +6934,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
@@ -6973,13 +6973,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7001,7 +7001,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7013,19 +7013,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J36" t="n">
         <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>454.6048385560546</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L36" t="n">
-        <v>949.9304447718133</v>
+        <v>352.5519571452619</v>
       </c>
       <c r="M36" t="n">
-        <v>949.9304447718133</v>
+        <v>949.9304447718135</v>
       </c>
       <c r="N36" t="n">
         <v>1577.52840832642</v>
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400712</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C37" t="n">
-        <v>484.8112968429803</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="D37" t="n">
-        <v>484.8112968429803</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="E37" t="n">
-        <v>484.8112968429803</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F37" t="n">
         <v>484.8112968429803</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578603</v>
       </c>
       <c r="H37" t="n">
         <v>175.9033664000583</v>
@@ -7098,10 +7098,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
@@ -7156,13 +7156,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7171,22 +7171,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
         <v>3640.422291068009</v>
@@ -7250,25 +7250,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K39" t="n">
-        <v>454.6048385560546</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L39" t="n">
-        <v>949.9304447718133</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>949.9304447718133</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
         <v>2553.061288060775</v>
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C40" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908939</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797187</v>
@@ -7332,52 +7332,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T40" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U40" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V40" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W40" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X40" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y40" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="41">
@@ -7402,37 +7402,37 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694708</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
@@ -7447,13 +7447,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7487,31 +7487,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>454.6048385560546</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>949.9304447718133</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>949.9304447718133</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>1577.52840832642</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O42" t="n">
-        <v>2129.438138565707</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2530.951795518647</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C43" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D43" t="n">
-        <v>402.7245934908939</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7569,52 +7569,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T43" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U43" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V43" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W43" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X43" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y43" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="44">
@@ -7724,13 +7724,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
         <v>949.9304447718133</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>580.8993044876688</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>411.9631215597619</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7830,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8072,13 +8072,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783518</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.64146763747119</v>
+        <v>90.64146763747169</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8534,16 +8534,16 @@
         <v>6.233205181928369</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>74.01734528517881</v>
       </c>
       <c r="L9" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>176.8008973295432</v>
+        <v>473.6238973478236</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -10369,7 +10369,7 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>2.046363078989089e-12</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -23418,25 +23418,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>65.33133491134424</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23469,7 +23469,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>65.54986409393072</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23658,22 +23658,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,16 +23700,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>191.8807364711615</v>
       </c>
       <c r="U16" t="n">
-        <v>72.11969353038609</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23901,7 +23901,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23937,25 +23937,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>80.98465480592293</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>66.73277020259223</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24126,19 +24126,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24147,7 +24147,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,16 +24174,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>181.7279934189941</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24375,16 +24375,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>62.35543909864896</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>72.11969353038577</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24606,7 +24606,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>40.32043864788574</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24615,7 +24615,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -24837,28 +24837,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>83.79952661609433</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>46.45968844823102</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24888,7 +24888,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25092,10 +25092,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25131,7 +25131,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25311,10 +25311,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>138.4949402405078</v>
+        <v>104.0840080815017</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -25323,7 +25323,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25554,22 +25554,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>46.45968844823057</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25791,22 +25791,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>46.45968844823057</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -26025,10 +26025,10 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="D46" t="n">
-        <v>139.469330230033</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26043,7 +26043,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>751490.1564333544</v>
+        <v>751490.1564333542</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>751490.1564333544</v>
+        <v>751490.1564333545</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>751490.1564333542</v>
+        <v>751490.1564333545</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>751490.1564333542</v>
+        <v>751490.1564333544</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>751490.1564333542</v>
+        <v>751490.1564333544</v>
       </c>
     </row>
     <row r="12">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>677359.4601380334</v>
+        <v>677359.4601380333</v>
       </c>
       <c r="C2" t="n">
-        <v>677359.4601380335</v>
+        <v>677359.4601380333</v>
       </c>
       <c r="D2" t="n">
-        <v>677359.4601380338</v>
+        <v>677359.4601380342</v>
       </c>
       <c r="E2" t="n">
         <v>665895.9447442548</v>
       </c>
       <c r="F2" t="n">
-        <v>665895.944744255</v>
+        <v>665895.9447442552</v>
       </c>
       <c r="G2" t="n">
         <v>665895.9447442549</v>
       </c>
       <c r="H2" t="n">
+        <v>665895.944744255</v>
+      </c>
+      <c r="I2" t="n">
         <v>665895.9447442552</v>
-      </c>
-      <c r="I2" t="n">
-        <v>665895.9447442549</v>
       </c>
       <c r="J2" t="n">
         <v>665895.9447442548</v>
       </c>
       <c r="K2" t="n">
-        <v>665895.9447442552</v>
+        <v>665895.9447442549</v>
       </c>
       <c r="L2" t="n">
+        <v>665895.9447442547</v>
+      </c>
+      <c r="M2" t="n">
+        <v>665895.9447442546</v>
+      </c>
+      <c r="N2" t="n">
+        <v>665895.9447442554</v>
+      </c>
+      <c r="O2" t="n">
+        <v>665895.9447442553</v>
+      </c>
+      <c r="P2" t="n">
         <v>665895.9447442548</v>
-      </c>
-      <c r="M2" t="n">
-        <v>665895.944744255</v>
-      </c>
-      <c r="N2" t="n">
-        <v>665895.9447442549</v>
-      </c>
-      <c r="O2" t="n">
-        <v>665895.9447442547</v>
-      </c>
-      <c r="P2" t="n">
-        <v>665895.9447442547</v>
       </c>
     </row>
     <row r="3">
@@ -26371,25 +26371,25 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>184756.2785481116</v>
+        <v>184756.2785481117</v>
       </c>
       <c r="E3" t="n">
         <v>771052.6913808064</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.797263848857256e-10</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1.741016149026109e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925928</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26401,7 +26401,7 @@
         <v>124208.5107080585</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>3.139184627798386e-10</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26426,13 +26426,13 @@
         <v>176266.9759012794</v>
       </c>
       <c r="E4" t="n">
+        <v>5677.536566682744</v>
+      </c>
+      <c r="F4" t="n">
+        <v>5677.536566682724</v>
+      </c>
+      <c r="G4" t="n">
         <v>5677.536566682745</v>
-      </c>
-      <c r="F4" t="n">
-        <v>5677.536566682744</v>
-      </c>
-      <c r="G4" t="n">
-        <v>5677.536566682744</v>
       </c>
       <c r="H4" t="n">
         <v>5677.536566682744</v>
@@ -26441,22 +26441,22 @@
         <v>5677.536566682745</v>
       </c>
       <c r="J4" t="n">
+        <v>5677.536566682745</v>
+      </c>
+      <c r="K4" t="n">
         <v>5677.536566682744</v>
       </c>
-      <c r="K4" t="n">
-        <v>5677.536566682745</v>
-      </c>
       <c r="L4" t="n">
-        <v>5677.536566682745</v>
+        <v>5677.536566682777</v>
       </c>
       <c r="M4" t="n">
         <v>5677.536566682745</v>
       </c>
       <c r="N4" t="n">
-        <v>5677.536566682745</v>
+        <v>5677.536566682721</v>
       </c>
       <c r="O4" t="n">
-        <v>5677.536566682745</v>
+        <v>5677.536566682744</v>
       </c>
       <c r="P4" t="n">
         <v>5677.536566682744</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-205389.9126029538</v>
+        <v>-205389.9126029539</v>
       </c>
       <c r="C6" t="n">
-        <v>384577.9666115907</v>
+        <v>384577.9666115905</v>
       </c>
       <c r="D6" t="n">
-        <v>228774.1605177961</v>
+        <v>228774.1605177964</v>
       </c>
       <c r="E6" t="n">
-        <v>-212304.1922814984</v>
+        <v>-211991.5509525771</v>
       </c>
       <c r="F6" t="n">
-        <v>558748.4990993083</v>
+        <v>559061.1404282295</v>
       </c>
       <c r="G6" t="n">
-        <v>558748.4990993082</v>
+        <v>559061.1404282295</v>
       </c>
       <c r="H6" t="n">
-        <v>558748.4990993083</v>
+        <v>559061.1404282296</v>
       </c>
       <c r="I6" t="n">
-        <v>558748.4990993082</v>
+        <v>559061.1404282298</v>
       </c>
       <c r="J6" t="n">
-        <v>382325.2799067152</v>
+        <v>382637.9212356362</v>
       </c>
       <c r="K6" t="n">
-        <v>558748.4990993084</v>
+        <v>559061.1404282295</v>
       </c>
       <c r="L6" t="n">
-        <v>558748.499099308</v>
+        <v>559061.1404282294</v>
       </c>
       <c r="M6" t="n">
-        <v>434539.9883912497</v>
+        <v>434852.6297201706</v>
       </c>
       <c r="N6" t="n">
-        <v>558748.4990993082</v>
+        <v>559061.1404282296</v>
       </c>
       <c r="O6" t="n">
-        <v>558748.4990993079</v>
+        <v>559061.1404282298</v>
       </c>
       <c r="P6" t="n">
-        <v>558748.4990993079</v>
+        <v>559061.1404282295</v>
       </c>
     </row>
   </sheetData>
@@ -26740,7 +26740,7 @@
         <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
         <v>593.4761003380651</v>
@@ -26965,19 +26965,19 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>215.7324361209784</v>
+        <v>215.7324361209785</v>
       </c>
       <c r="E3" t="n">
         <v>774.4994000036087</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26995,7 +26995,7 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27390,7 +27390,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>144.800557357096</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27432,7 +27432,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>144.8005573570965</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27536,13 +27536,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -27554,7 +27554,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
         <v>134.9656217923382</v>
@@ -27590,7 +27590,7 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>199.7821812016451</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
@@ -27599,7 +27599,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>88.99350972179718</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27621,19 +27621,19 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27663,10 +27663,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>42.56694208374632</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>29.87630315515909</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
@@ -27779,7 +27779,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27794,10 +27794,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>38.6039435701685</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,10 +27818,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27833,16 +27833,16 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>28.98780970275067</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27858,7 +27858,7 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27867,7 +27867,7 @@
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>16.67730289317637</v>
       </c>
       <c r="H8" t="n">
         <v>315.0408840752156</v>
@@ -27903,16 +27903,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>10.91283628683036</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U8" t="n">
         <v>251.1547862223006</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -28013,7 +28013,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -28025,16 +28025,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.9207765545704</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>142.6262790074123</v>
+        <v>152.7120966692326</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>123.266557879417</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>17.69584188176898</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28079,7 +28079,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>183.1193802301919</v>
       </c>
     </row>
     <row r="11">
@@ -31278,46 +31278,46 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,19 +31436,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31460,22 +31460,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31849,13 +31849,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>403.8524967138027</v>
       </c>
       <c r="O12" t="n">
-        <v>369.1789913099997</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
         <v>561.8765786214698</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -32001,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32068,34 +32068,34 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>465.7451325200306</v>
+        <v>746.4857620875795</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32104,13 +32104,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32177,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,10 +32305,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
         <v>101.3076196007749</v>
@@ -32317,37 +32317,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>414.644818552487</v>
       </c>
       <c r="N18" t="n">
-        <v>463.9598929192557</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32548,13 +32548,13 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>173.8200325543355</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
         <v>638.8832749473073</v>
@@ -32563,19 +32563,19 @@
         <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>322.6999460717711</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742439</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,31 +32779,31 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>175.6052721551106</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -32815,13 +32815,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33031,7 +33031,7 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>467.1465236515248</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862121</v>
@@ -33040,10 +33040,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -33274,10 +33274,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O30" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33411,37 +33411,37 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H32" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R32" t="n">
         <v>345.4516222043725</v>
@@ -33450,10 +33450,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U32" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33499,37 +33499,37 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>439.2440297647771</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O33" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T33" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U33" t="n">
         <v>0.1935814387275954</v>
@@ -33575,28 +33575,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J34" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N34" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P34" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q34" t="n">
         <v>206.5643005515927</v>
@@ -33605,7 +33605,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
@@ -33648,37 +33648,37 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H35" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R35" t="n">
         <v>345.4516222043725</v>
@@ -33687,10 +33687,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U35" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33736,25 +33736,25 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K36" t="n">
-        <v>349.3304751113902</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>246.9596973201451</v>
       </c>
       <c r="M36" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -33763,10 +33763,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T36" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U36" t="n">
         <v>0.1935814387275954</v>
@@ -33812,28 +33812,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J37" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N37" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P37" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q37" t="n">
         <v>206.5643005515927</v>
@@ -33842,7 +33842,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
@@ -33885,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33897,31 +33897,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,10 +33964,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
         <v>101.3076196007749</v>
@@ -33976,22 +33976,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>349.3304751113902</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -34000,13 +34000,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34134,31 +34134,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>349.3304751113902</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>168.0123247135882</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34444,7 +34444,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
@@ -34453,7 +34453,7 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>513.0745614164389</v>
+        <v>514.8598010172138</v>
       </c>
       <c r="M45" t="n">
         <v>142.1340339220183</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34792,13 +34792,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245898</v>
+        <v>325.145920326212</v>
       </c>
       <c r="P3" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34935,25 +34935,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770692</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35026,16 +35026,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.37527471535621</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,7 +35096,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35111,7 +35111,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35254,16 +35254,16 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>68.29072693268387</v>
+        <v>142.3080722178627</v>
       </c>
       <c r="L9" t="n">
-        <v>509.4561008748672</v>
+        <v>138.615755571408</v>
       </c>
       <c r="M9" t="n">
         <v>647.0155045122269</v>
       </c>
       <c r="N9" t="n">
-        <v>377.4642727362752</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="O9" t="n">
         <v>554.9858674269929</v>
@@ -35418,7 +35418,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
         <v>751.8584478193516</v>
@@ -35497,13 +35497,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>272.5107846304694</v>
       </c>
       <c r="O12" t="n">
-        <v>226.5827468655553</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
         <v>427.9021712071395</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193505</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,25 +35725,25 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>334.4034204366973</v>
+        <v>615.1440500042462</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35968,22 +35968,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>272.5107846304687</v>
       </c>
       <c r="N18" t="n">
-        <v>332.6181808359224</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36144,7 +36144,7 @@
         <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,13 +36196,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>35.97859357997653</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
         <v>500.3288951674331</v>
@@ -36211,19 +36211,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>191.3582339884378</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,25 +36433,25 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678996</v>
+        <v>37.76383318075158</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36603,7 +36603,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
         <v>751.8584478193516</v>
@@ -36618,7 +36618,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36679,7 +36679,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>328.5921438716506</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
@@ -36688,10 +36688,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36840,7 +36840,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
         <v>751.8584478193516</v>
@@ -36922,10 +36922,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O30" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -37065,31 +37065,31 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J32" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L32" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N32" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P32" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924747</v>
       </c>
       <c r="R32" t="n">
         <v>129.8660843902404</v>
@@ -37144,31 +37144,31 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>300.6896499849029</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O33" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37226,7 +37226,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K34" t="n">
         <v>264.3325884096349</v>
@@ -37235,19 +37235,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N34" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P34" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q34" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J35" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L35" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N35" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P35" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,28 +37381,28 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K36" t="n">
-        <v>211.4890361370312</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>108.4053175402709</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37463,7 +37463,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K37" t="n">
         <v>264.3325884096349</v>
@@ -37472,19 +37472,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N37" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P37" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q37" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396405</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,28 +37618,28 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>211.4890361370312</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,34 +37855,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>211.4890361370312</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>22.33282074962425</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38101,7 +38101,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>374.5201816365647</v>
+        <v>376.3054212373396</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
